--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B8EC81-5E21-4F62-B471-6FDD540E1C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4736E4-AE99-4F62-9D56-1888B7AE3F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -2106,8 +2106,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4655,7 +4655,9 @@
       <c r="U26" s="31"/>
       <c r="V26" s="31"/>
       <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
+      <c r="X26" s="31">
+        <v>1</v>
+      </c>
       <c r="Y26" s="31"/>
       <c r="Z26" s="31"/>
       <c r="AA26" s="31"/>
@@ -4750,7 +4752,9 @@
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
       <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
+      <c r="X27" s="57">
+        <v>1</v>
+      </c>
       <c r="Y27" s="57"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="57"/>
@@ -7371,9 +7375,9 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG58" sqref="AG58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -11333,7 +11337,7 @@
       </c>
       <c r="W26" s="24" t="str">
         <f>IF(真值表!X26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X26" s="24" t="str">
         <f>IF(真值表!Y26=1,$O26&amp;"+","")</f>
@@ -11487,7 +11491,7 @@
       </c>
       <c r="W27" s="49" t="str">
         <f>IF(真值表!X27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X27" s="49" t="str">
         <f>IF(真值表!Y27=1,$O27&amp;"+","")</f>
@@ -16218,7 +16222,7 @@
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16318,7 +16322,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -16686,7 +16690,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4736E4-AE99-4F62-9D56-1888B7AE3F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051EEBD-D448-48A2-A56C-2AF580F41925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -2106,8 +2106,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -16690,7 +16690,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6051EEBD-D448-48A2-A56C-2AF580F41925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCBF8F1-AA54-455C-92E3-734A5E8D1699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -2106,8 +2106,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4343,30 +4343,28 @@
         <v>0</v>
       </c>
       <c r="P23" s="62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="63">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="63">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="63">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="57"/>
       <c r="V23" s="57"/>
       <c r="W23" s="57"/>
-      <c r="X23" s="57">
-        <v>1</v>
-      </c>
+      <c r="X23" s="57"/>
       <c r="Y23" s="57"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="57"/>
@@ -4461,9 +4459,7 @@
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
       <c r="W24" s="31"/>
-      <c r="X24" s="31">
-        <v>1</v>
-      </c>
+      <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
       <c r="AA24" s="31"/>
@@ -7375,9 +7371,9 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W58" sqref="W58"/>
+      <selection pane="bottomLeft" activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -10847,19 +10843,19 @@
       </c>
       <c r="P23" s="49" t="str">
         <f>IF(真值表!Q23=1,$O23&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q23" s="49" t="str">
         <f>IF(真值表!R23=1,$O23&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="R23" s="49" t="str">
         <f>IF(真值表!S23=1,$O23&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="S23" s="49" t="str">
         <f>IF(真值表!T23=1,$O23&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="T23" s="49" t="str">
         <f>IF(真值表!U23=1,$O23&amp;"+","")</f>
@@ -10875,7 +10871,7 @@
       </c>
       <c r="W23" s="49" t="str">
         <f>IF(真值表!X23=1,$O23&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X23" s="49" t="str">
         <f>IF(真值表!Y23=1,$O23&amp;"+","")</f>
@@ -11029,7 +11025,7 @@
       </c>
       <c r="W24" s="24" t="str">
         <f>IF(真值表!X24=1,$O24&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X24" s="24" t="str">
         <f>IF(真值表!Y24=1,$O24&amp;"+","")</f>
@@ -16194,19 +16190,19 @@
       <c r="O58" s="72"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Q58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="S58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16222,7 +16218,7 @@
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16289,22 +16285,22 @@
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
 )</f>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
@@ -16322,7 +16318,7 @@
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>

--- a/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/BSB2101_U202115666_刘文博/BSB2021_U202115666_刘文博_LOGISIM_FPG/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Document\hardware_design\hust-hardware_design\BSB2101_U202115666_刘文博\BSB2021_U202115666_刘文博_LOGISIM_FPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCBF8F1-AA54-455C-92E3-734A5E8D1699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22910596-DCE0-490B-A7F1-74547D2024E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -7371,7 +7371,7 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S58" sqref="S58"/>
     </sheetView>
@@ -16686,8 +16686,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
